--- a/需求分类结果/关于Bugzilla的数据汇总/AddressBar.xlsx
+++ b/需求分类结果/关于Bugzilla的数据汇总/AddressBar.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汤聪\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="9285"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519">
   <si>
     <t>邮编_文本1</t>
   </si>
@@ -4558,29 +4553,235 @@
   </si>
   <si>
     <t>Make Awesome Bar items draggable</t>
+  </si>
+  <si>
+    <t>允许直接复制网址</t>
+  </si>
+  <si>
+    <r>
+      <t>ctrl+p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、ctrl+n快捷键有问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>alt+f4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有东西下载的话提醒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的解析有问题（好像很多都提到了这个）</t>
+    </r>
+  </si>
+  <si>
+    <t>对于一些笔误进行修正</t>
+  </si>
+  <si>
+    <t>对于http、https等的兼容有些问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4590,10 +4791,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4616,26 +5004,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4684,7 +5360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4719,7 +5395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4893,29 +5569,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="A511" sqref="A511"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="87.28515625" customWidth="1"/>
+    <col min="6" max="6" width="87.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +5609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4961,7 +5632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4984,7 +5655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -5007,7 +5678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -5030,7 +5701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -5053,7 +5724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -5076,7 +5747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -5099,7 +5770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -5122,7 +5793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -5145,7 +5816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -5168,7 +5839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -5191,7 +5862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -5214,7 +5885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -5237,7 +5908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -5260,7 +5931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5283,7 +5954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -5306,7 +5977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -5329,7 +6000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -5352,7 +6023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -5375,7 +6046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -5398,7 +6069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -5421,7 +6092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -5444,7 +6115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
@@ -5467,7 +6138,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -5490,7 +6161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -5513,7 +6184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
@@ -5536,7 +6207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -5559,7 +6230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -5582,7 +6253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -5605,7 +6276,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>97</v>
       </c>
@@ -5628,7 +6299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -5651,7 +6322,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -5674,7 +6345,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -5697,7 +6368,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
@@ -5720,7 +6391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>112</v>
       </c>
@@ -5743,7 +6414,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>115</v>
       </c>
@@ -5766,7 +6437,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>118</v>
       </c>
@@ -5789,7 +6460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -5812,7 +6483,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>124</v>
       </c>
@@ -5835,7 +6506,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>127</v>
       </c>
@@ -5858,7 +6529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>130</v>
       </c>
@@ -5881,7 +6552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>133</v>
       </c>
@@ -5904,7 +6575,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>136</v>
       </c>
@@ -5927,7 +6598,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>139</v>
       </c>
@@ -5950,7 +6621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -5973,7 +6644,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>145</v>
       </c>
@@ -5996,7 +6667,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>148</v>
       </c>
@@ -6019,7 +6690,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>151</v>
       </c>
@@ -6042,7 +6713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>154</v>
       </c>
@@ -6065,7 +6736,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>157</v>
       </c>
@@ -6088,7 +6759,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
@@ -6111,7 +6782,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>163</v>
       </c>
@@ -6134,7 +6805,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>166</v>
       </c>
@@ -6157,7 +6828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -6180,7 +6851,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>172</v>
       </c>
@@ -6203,7 +6874,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>175</v>
       </c>
@@ -6226,7 +6897,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
@@ -6249,7 +6920,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>181</v>
       </c>
@@ -6272,7 +6943,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>184</v>
       </c>
@@ -6295,7 +6966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>187</v>
       </c>
@@ -6318,7 +6989,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>190</v>
       </c>
@@ -6341,7 +7012,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>193</v>
       </c>
@@ -6364,7 +7035,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>196</v>
       </c>
@@ -6387,7 +7058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>199</v>
       </c>
@@ -6410,7 +7081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>202</v>
       </c>
@@ -6433,7 +7104,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>205</v>
       </c>
@@ -6456,7 +7127,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>208</v>
       </c>
@@ -6479,7 +7150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>211</v>
       </c>
@@ -6502,7 +7173,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>214</v>
       </c>
@@ -6525,7 +7196,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>217</v>
       </c>
@@ -6548,7 +7219,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>220</v>
       </c>
@@ -6571,7 +7242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>223</v>
       </c>
@@ -6594,7 +7265,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>226</v>
       </c>
@@ -6617,7 +7288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>229</v>
       </c>
@@ -6640,7 +7311,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>232</v>
       </c>
@@ -6663,7 +7334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>235</v>
       </c>
@@ -6686,7 +7357,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>238</v>
       </c>
@@ -6709,7 +7380,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>241</v>
       </c>
@@ -6732,7 +7403,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>244</v>
       </c>
@@ -6755,7 +7426,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>247</v>
       </c>
@@ -6778,7 +7449,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>250</v>
       </c>
@@ -6801,7 +7472,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>253</v>
       </c>
@@ -6824,7 +7495,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>256</v>
       </c>
@@ -6847,7 +7518,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>259</v>
       </c>
@@ -6870,7 +7541,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
@@ -6893,7 +7564,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>265</v>
       </c>
@@ -6916,7 +7587,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>268</v>
       </c>
@@ -6939,7 +7610,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>271</v>
       </c>
@@ -6962,7 +7633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>274</v>
       </c>
@@ -6985,7 +7656,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
         <v>277</v>
       </c>
@@ -7008,7 +7679,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>280</v>
       </c>
@@ -7031,7 +7702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>283</v>
       </c>
@@ -7054,7 +7725,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>286</v>
       </c>
@@ -7077,7 +7748,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>289</v>
       </c>
@@ -7100,7 +7771,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>292</v>
       </c>
@@ -7123,7 +7794,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>295</v>
       </c>
@@ -7146,7 +7817,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>298</v>
       </c>
@@ -7169,7 +7840,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>301</v>
       </c>
@@ -7192,7 +7863,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>304</v>
       </c>
@@ -7215,7 +7886,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>307</v>
       </c>
@@ -7238,7 +7909,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>310</v>
       </c>
@@ -7261,7 +7932,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>313</v>
       </c>
@@ -7284,7 +7955,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>316</v>
       </c>
@@ -7307,7 +7978,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>319</v>
       </c>
@@ -7330,7 +8001,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>322</v>
       </c>
@@ -7353,7 +8024,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>325</v>
       </c>
@@ -7376,7 +8047,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>328</v>
       </c>
@@ -7399,7 +8070,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>331</v>
       </c>
@@ -7422,7 +8093,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>334</v>
       </c>
@@ -7445,7 +8116,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
@@ -7468,7 +8139,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>340</v>
       </c>
@@ -7491,7 +8162,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>343</v>
       </c>
@@ -7514,7 +8185,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>346</v>
       </c>
@@ -7537,7 +8208,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>349</v>
       </c>
@@ -7560,7 +8231,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>352</v>
       </c>
@@ -7583,7 +8254,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>355</v>
       </c>
@@ -7606,7 +8277,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>358</v>
       </c>
@@ -7629,7 +8300,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>361</v>
       </c>
@@ -7652,7 +8323,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>364</v>
       </c>
@@ -7675,7 +8346,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>367</v>
       </c>
@@ -7698,7 +8369,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>370</v>
       </c>
@@ -7721,7 +8392,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>373</v>
       </c>
@@ -7744,7 +8415,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>376</v>
       </c>
@@ -7767,7 +8438,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>379</v>
       </c>
@@ -7790,7 +8461,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>382</v>
       </c>
@@ -7813,7 +8484,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>385</v>
       </c>
@@ -7836,7 +8507,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>388</v>
       </c>
@@ -7859,7 +8530,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>391</v>
       </c>
@@ -7882,7 +8553,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>394</v>
       </c>
@@ -7905,7 +8576,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>397</v>
       </c>
@@ -7928,7 +8599,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>400</v>
       </c>
@@ -7951,7 +8622,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>403</v>
       </c>
@@ -7974,7 +8645,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>406</v>
       </c>
@@ -7997,7 +8668,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>409</v>
       </c>
@@ -8020,7 +8691,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>412</v>
       </c>
@@ -8043,7 +8714,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>415</v>
       </c>
@@ -8066,7 +8737,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>418</v>
       </c>
@@ -8089,7 +8760,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>421</v>
       </c>
@@ -8112,7 +8783,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>424</v>
       </c>
@@ -8135,7 +8806,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>427</v>
       </c>
@@ -8158,7 +8829,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>430</v>
       </c>
@@ -8181,7 +8852,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>433</v>
       </c>
@@ -8204,7 +8875,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>436</v>
       </c>
@@ -8227,7 +8898,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>439</v>
       </c>
@@ -8250,7 +8921,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>442</v>
       </c>
@@ -8273,7 +8944,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>445</v>
       </c>
@@ -8296,7 +8967,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
@@ -8319,7 +8990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>451</v>
       </c>
@@ -8342,7 +9013,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>454</v>
       </c>
@@ -8365,7 +9036,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>457</v>
       </c>
@@ -8388,7 +9059,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>460</v>
       </c>
@@ -8411,7 +9082,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>463</v>
       </c>
@@ -8434,7 +9105,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>466</v>
       </c>
@@ -8457,7 +9128,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>469</v>
       </c>
@@ -8480,7 +9151,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>472</v>
       </c>
@@ -8503,7 +9174,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>475</v>
       </c>
@@ -8526,7 +9197,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>478</v>
       </c>
@@ -8549,7 +9220,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>481</v>
       </c>
@@ -8572,7 +9243,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>484</v>
       </c>
@@ -8595,7 +9266,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>487</v>
       </c>
@@ -8618,7 +9289,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
         <v>490</v>
       </c>
@@ -8641,7 +9312,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>493</v>
       </c>
@@ -8664,7 +9335,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>496</v>
       </c>
@@ -8687,7 +9358,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>499</v>
       </c>
@@ -8710,7 +9381,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>502</v>
       </c>
@@ -8733,7 +9404,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
         <v>505</v>
       </c>
@@ -8756,7 +9427,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>508</v>
       </c>
@@ -8779,7 +9450,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>511</v>
       </c>
@@ -8802,7 +9473,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>514</v>
       </c>
@@ -8825,7 +9496,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>517</v>
       </c>
@@ -8848,7 +9519,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
         <v>520</v>
       </c>
@@ -8871,7 +9542,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
         <v>523</v>
       </c>
@@ -8894,7 +9565,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>526</v>
       </c>
@@ -8917,7 +9588,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
         <v>529</v>
       </c>
@@ -8940,7 +9611,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="2" t="s">
         <v>532</v>
       </c>
@@ -8963,7 +9634,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>535</v>
       </c>
@@ -8986,7 +9657,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>538</v>
       </c>
@@ -9009,7 +9680,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>541</v>
       </c>
@@ -9032,7 +9703,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>544</v>
       </c>
@@ -9055,7 +9726,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="2" t="s">
         <v>547</v>
       </c>
@@ -9078,7 +9749,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>550</v>
       </c>
@@ -9101,7 +9772,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>553</v>
       </c>
@@ -9124,7 +9795,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>558</v>
       </c>
@@ -9147,7 +9818,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>562</v>
       </c>
@@ -9170,7 +9841,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>565</v>
       </c>
@@ -9193,7 +9864,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>568</v>
       </c>
@@ -9216,7 +9887,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>571</v>
       </c>
@@ -9239,7 +9910,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>574</v>
       </c>
@@ -9262,7 +9933,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>577</v>
       </c>
@@ -9285,7 +9956,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>580</v>
       </c>
@@ -9308,7 +9979,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="2" t="s">
         <v>583</v>
       </c>
@@ -9331,7 +10002,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
         <v>586</v>
       </c>
@@ -9354,7 +10025,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>589</v>
       </c>
@@ -9377,7 +10048,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
         <v>592</v>
       </c>
@@ -9400,7 +10071,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>595</v>
       </c>
@@ -9423,7 +10094,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>598</v>
       </c>
@@ -9446,7 +10117,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>601</v>
       </c>
@@ -9469,7 +10140,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>604</v>
       </c>
@@ -9492,7 +10163,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>607</v>
       </c>
@@ -9515,7 +10186,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>610</v>
       </c>
@@ -9538,7 +10209,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>613</v>
       </c>
@@ -9561,7 +10232,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>616</v>
       </c>
@@ -9584,7 +10255,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>619</v>
       </c>
@@ -9607,7 +10278,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>622</v>
       </c>
@@ -9630,7 +10301,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>625</v>
       </c>
@@ -9653,7 +10324,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>628</v>
       </c>
@@ -9676,7 +10347,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
         <v>631</v>
       </c>
@@ -9699,7 +10370,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
         <v>634</v>
       </c>
@@ -9722,7 +10393,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="2" t="s">
         <v>637</v>
       </c>
@@ -9745,7 +10416,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="2" t="s">
         <v>640</v>
       </c>
@@ -9768,7 +10439,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="2" t="s">
         <v>643</v>
       </c>
@@ -9791,7 +10462,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>646</v>
       </c>
@@ -9814,7 +10485,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="2" t="s">
         <v>649</v>
       </c>
@@ -9837,7 +10508,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>652</v>
       </c>
@@ -9860,7 +10531,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="2" t="s">
         <v>655</v>
       </c>
@@ -9883,7 +10554,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>658</v>
       </c>
@@ -9906,7 +10577,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>661</v>
       </c>
@@ -9929,7 +10600,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>664</v>
       </c>
@@ -9952,7 +10623,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
         <v>667</v>
       </c>
@@ -9975,7 +10646,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>670</v>
       </c>
@@ -9998,7 +10669,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="2" t="s">
         <v>673</v>
       </c>
@@ -10021,7 +10692,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>676</v>
       </c>
@@ -10044,7 +10715,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>679</v>
       </c>
@@ -10067,7 +10738,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
         <v>682</v>
       </c>
@@ -10090,7 +10761,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>685</v>
       </c>
@@ -10113,7 +10784,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
         <v>688</v>
       </c>
@@ -10136,7 +10807,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
         <v>691</v>
       </c>
@@ -10159,7 +10830,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>694</v>
       </c>
@@ -10182,7 +10853,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
         <v>697</v>
       </c>
@@ -10205,7 +10876,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
         <v>700</v>
       </c>
@@ -10228,7 +10899,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
         <v>703</v>
       </c>
@@ -10251,7 +10922,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
         <v>706</v>
       </c>
@@ -10274,7 +10945,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
         <v>709</v>
       </c>
@@ -10297,7 +10968,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="2" t="s">
         <v>712</v>
       </c>
@@ -10320,7 +10991,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
         <v>715</v>
       </c>
@@ -10343,7 +11014,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
         <v>718</v>
       </c>
@@ -10366,7 +11037,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
         <v>721</v>
       </c>
@@ -10389,7 +11060,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
         <v>724</v>
       </c>
@@ -10412,7 +11083,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
         <v>727</v>
       </c>
@@ -10435,7 +11106,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="2" t="s">
         <v>730</v>
       </c>
@@ -10458,7 +11129,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="2" t="s">
         <v>733</v>
       </c>
@@ -10481,7 +11152,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="2" t="s">
         <v>736</v>
       </c>
@@ -10504,7 +11175,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>739</v>
       </c>
@@ -10527,7 +11198,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="2" t="s">
         <v>742</v>
       </c>
@@ -10550,7 +11221,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="2" t="s">
         <v>745</v>
       </c>
@@ -10573,7 +11244,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>748</v>
       </c>
@@ -10596,7 +11267,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="2" t="s">
         <v>751</v>
       </c>
@@ -10619,7 +11290,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="2" t="s">
         <v>754</v>
       </c>
@@ -10642,7 +11313,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="2" t="s">
         <v>757</v>
       </c>
@@ -10665,7 +11336,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>760</v>
       </c>
@@ -10688,7 +11359,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="2" t="s">
         <v>763</v>
       </c>
@@ -10711,7 +11382,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="2" t="s">
         <v>766</v>
       </c>
@@ -10734,7 +11405,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="2" t="s">
         <v>769</v>
       </c>
@@ -10757,7 +11428,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="2" t="s">
         <v>772</v>
       </c>
@@ -10780,7 +11451,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="2" t="s">
         <v>775</v>
       </c>
@@ -10803,7 +11474,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="2" t="s">
         <v>778</v>
       </c>
@@ -10826,7 +11497,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="2" t="s">
         <v>781</v>
       </c>
@@ -10849,7 +11520,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="2" t="s">
         <v>784</v>
       </c>
@@ -10872,7 +11543,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="2" t="s">
         <v>787</v>
       </c>
@@ -10895,7 +11566,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="2" t="s">
         <v>790</v>
       </c>
@@ -10918,7 +11589,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="2" t="s">
         <v>793</v>
       </c>
@@ -10941,7 +11612,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>796</v>
       </c>
@@ -10964,7 +11635,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="2" t="s">
         <v>799</v>
       </c>
@@ -10987,7 +11658,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="2" t="s">
         <v>802</v>
       </c>
@@ -11010,7 +11681,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="2" t="s">
         <v>805</v>
       </c>
@@ -11033,7 +11704,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="2" t="s">
         <v>808</v>
       </c>
@@ -11056,7 +11727,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="2" t="s">
         <v>811</v>
       </c>
@@ -11079,7 +11750,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="2" t="s">
         <v>814</v>
       </c>
@@ -11102,7 +11773,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="2" t="s">
         <v>817</v>
       </c>
@@ -11125,7 +11796,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="2" t="s">
         <v>820</v>
       </c>
@@ -11148,7 +11819,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="2" t="s">
         <v>823</v>
       </c>
@@ -11171,7 +11842,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="2" t="s">
         <v>826</v>
       </c>
@@ -11194,7 +11865,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="2" t="s">
         <v>829</v>
       </c>
@@ -11217,7 +11888,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="2" t="s">
         <v>832</v>
       </c>
@@ -11240,7 +11911,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="2" t="s">
         <v>835</v>
       </c>
@@ -11263,7 +11934,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="2" t="s">
         <v>838</v>
       </c>
@@ -11286,7 +11957,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="2" t="s">
         <v>841</v>
       </c>
@@ -11309,7 +11980,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="2" t="s">
         <v>844</v>
       </c>
@@ -11332,7 +12003,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="2" t="s">
         <v>847</v>
       </c>
@@ -11355,7 +12026,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="2" t="s">
         <v>850</v>
       </c>
@@ -11378,7 +12049,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="2" t="s">
         <v>853</v>
       </c>
@@ -11401,7 +12072,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="2" t="s">
         <v>856</v>
       </c>
@@ -11424,7 +12095,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="2" t="s">
         <v>859</v>
       </c>
@@ -11447,7 +12118,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="2" t="s">
         <v>862</v>
       </c>
@@ -11470,7 +12141,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="2" t="s">
         <v>865</v>
       </c>
@@ -11493,7 +12164,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="2" t="s">
         <v>868</v>
       </c>
@@ -11516,7 +12187,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="2" t="s">
         <v>871</v>
       </c>
@@ -11539,7 +12210,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
         <v>874</v>
       </c>
@@ -11562,7 +12233,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
         <v>877</v>
       </c>
@@ -11585,7 +12256,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="2" t="s">
         <v>880</v>
       </c>
@@ -11608,7 +12279,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
         <v>883</v>
       </c>
@@ -11631,7 +12302,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="2" t="s">
         <v>886</v>
       </c>
@@ -11654,7 +12325,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="2" t="s">
         <v>889</v>
       </c>
@@ -11677,7 +12348,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="2" t="s">
         <v>892</v>
       </c>
@@ -11700,7 +12371,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
         <v>895</v>
       </c>
@@ -11723,7 +12394,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="2" t="s">
         <v>898</v>
       </c>
@@ -11746,7 +12417,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="2" t="s">
         <v>901</v>
       </c>
@@ -11769,7 +12440,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="2" t="s">
         <v>904</v>
       </c>
@@ -11792,7 +12463,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="2" t="s">
         <v>907</v>
       </c>
@@ -11815,7 +12486,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="2" t="s">
         <v>910</v>
       </c>
@@ -11838,7 +12509,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="2" t="s">
         <v>913</v>
       </c>
@@ -11861,7 +12532,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="2" t="s">
         <v>916</v>
       </c>
@@ -11884,7 +12555,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="2" t="s">
         <v>919</v>
       </c>
@@ -11907,7 +12578,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="2" t="s">
         <v>922</v>
       </c>
@@ -11930,7 +12601,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="2" t="s">
         <v>925</v>
       </c>
@@ -11953,7 +12624,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="2" t="s">
         <v>928</v>
       </c>
@@ -11976,7 +12647,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="2" t="s">
         <v>931</v>
       </c>
@@ -11999,7 +12670,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="2" t="s">
         <v>934</v>
       </c>
@@ -12022,7 +12693,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="2" t="s">
         <v>937</v>
       </c>
@@ -12045,7 +12716,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="2" t="s">
         <v>940</v>
       </c>
@@ -12068,7 +12739,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="2" t="s">
         <v>943</v>
       </c>
@@ -12091,7 +12762,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="2" t="s">
         <v>946</v>
       </c>
@@ -12114,7 +12785,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="2" t="s">
         <v>949</v>
       </c>
@@ -12137,7 +12808,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="2" t="s">
         <v>952</v>
       </c>
@@ -12160,7 +12831,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="2" t="s">
         <v>955</v>
       </c>
@@ -12183,7 +12854,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="2" t="s">
         <v>958</v>
       </c>
@@ -12206,7 +12877,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="2" t="s">
         <v>961</v>
       </c>
@@ -12229,7 +12900,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="2" t="s">
         <v>964</v>
       </c>
@@ -12252,7 +12923,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="2" t="s">
         <v>967</v>
       </c>
@@ -12275,7 +12946,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="2" t="s">
         <v>970</v>
       </c>
@@ -12298,7 +12969,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="2" t="s">
         <v>973</v>
       </c>
@@ -12321,7 +12992,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="2" t="s">
         <v>976</v>
       </c>
@@ -12344,7 +13015,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="2" t="s">
         <v>979</v>
       </c>
@@ -12367,7 +13038,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="2" t="s">
         <v>982</v>
       </c>
@@ -12390,7 +13061,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="2" t="s">
         <v>985</v>
       </c>
@@ -12413,7 +13084,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="2" t="s">
         <v>988</v>
       </c>
@@ -12436,7 +13107,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="2" t="s">
         <v>991</v>
       </c>
@@ -12459,7 +13130,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="2" t="s">
         <v>994</v>
       </c>
@@ -12482,7 +13153,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="2" t="s">
         <v>997</v>
       </c>
@@ -12505,7 +13176,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="2" t="s">
         <v>1000</v>
       </c>
@@ -12528,7 +13199,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="2" t="s">
         <v>1003</v>
       </c>
@@ -12551,7 +13222,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="2" t="s">
         <v>1006</v>
       </c>
@@ -12574,7 +13245,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="2" t="s">
         <v>1009</v>
       </c>
@@ -12597,7 +13268,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="2" t="s">
         <v>1012</v>
       </c>
@@ -12620,7 +13291,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="2" t="s">
         <v>1015</v>
       </c>
@@ -12643,7 +13314,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="2" t="s">
         <v>1018</v>
       </c>
@@ -12666,7 +13337,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="2" t="s">
         <v>1021</v>
       </c>
@@ -12689,7 +13360,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="2" t="s">
         <v>1024</v>
       </c>
@@ -12712,7 +13383,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="2" t="s">
         <v>1027</v>
       </c>
@@ -12735,7 +13406,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="2" t="s">
         <v>1030</v>
       </c>
@@ -12758,7 +13429,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="2" t="s">
         <v>1033</v>
       </c>
@@ -12781,7 +13452,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="2" t="s">
         <v>1036</v>
       </c>
@@ -12804,7 +13475,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="2" t="s">
         <v>1039</v>
       </c>
@@ -12827,7 +13498,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="2" t="s">
         <v>1042</v>
       </c>
@@ -12850,7 +13521,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="2" t="s">
         <v>1045</v>
       </c>
@@ -12873,7 +13544,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="2" t="s">
         <v>1048</v>
       </c>
@@ -12896,7 +13567,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="2" t="s">
         <v>1051</v>
       </c>
@@ -12919,7 +13590,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="2" t="s">
         <v>1054</v>
       </c>
@@ -12942,7 +13613,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="2" t="s">
         <v>1057</v>
       </c>
@@ -12965,7 +13636,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="2" t="s">
         <v>1060</v>
       </c>
@@ -12988,7 +13659,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="2" t="s">
         <v>1063</v>
       </c>
@@ -13011,7 +13682,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="2" t="s">
         <v>1066</v>
       </c>
@@ -13034,7 +13705,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="2" t="s">
         <v>1069</v>
       </c>
@@ -13057,7 +13728,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="2" t="s">
         <v>1072</v>
       </c>
@@ -13080,7 +13751,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="2" t="s">
         <v>1075</v>
       </c>
@@ -13103,7 +13774,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="2" t="s">
         <v>1078</v>
       </c>
@@ -13126,7 +13797,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="2" t="s">
         <v>1081</v>
       </c>
@@ -13149,7 +13820,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="2" t="s">
         <v>1084</v>
       </c>
@@ -13172,7 +13843,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="2" t="s">
         <v>1087</v>
       </c>
@@ -13195,7 +13866,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="2" t="s">
         <v>1090</v>
       </c>
@@ -13218,7 +13889,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="2" t="s">
         <v>1093</v>
       </c>
@@ -13241,7 +13912,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="2" t="s">
         <v>1096</v>
       </c>
@@ -13264,7 +13935,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="2" t="s">
         <v>1099</v>
       </c>
@@ -13287,7 +13958,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="2" t="s">
         <v>1102</v>
       </c>
@@ -13310,7 +13981,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="2" t="s">
         <v>1105</v>
       </c>
@@ -13333,7 +14004,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="2" t="s">
         <v>1108</v>
       </c>
@@ -13356,7 +14027,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="2" t="s">
         <v>1111</v>
       </c>
@@ -13379,7 +14050,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="2" t="s">
         <v>1114</v>
       </c>
@@ -13402,7 +14073,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="2" t="s">
         <v>1117</v>
       </c>
@@ -13425,7 +14096,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="2" t="s">
         <v>1120</v>
       </c>
@@ -13448,7 +14119,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="2" t="s">
         <v>1123</v>
       </c>
@@ -13471,7 +14142,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="2" t="s">
         <v>1126</v>
       </c>
@@ -13494,7 +14165,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="2" t="s">
         <v>1129</v>
       </c>
@@ -13517,7 +14188,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="2" t="s">
         <v>1132</v>
       </c>
@@ -13540,7 +14211,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="2" t="s">
         <v>1135</v>
       </c>
@@ -13563,7 +14234,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="2" t="s">
         <v>1138</v>
       </c>
@@ -13586,7 +14257,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="2" t="s">
         <v>1141</v>
       </c>
@@ -13609,7 +14280,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="2" t="s">
         <v>1144</v>
       </c>
@@ -13632,7 +14303,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="2" t="s">
         <v>1147</v>
       </c>
@@ -13655,7 +14326,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="2" t="s">
         <v>1150</v>
       </c>
@@ -13678,7 +14349,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="2" t="s">
         <v>1153</v>
       </c>
@@ -13701,7 +14372,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="2" t="s">
         <v>1156</v>
       </c>
@@ -13724,7 +14395,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13747,7 +14418,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="2" t="s">
         <v>1162</v>
       </c>
@@ -13770,7 +14441,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="2" t="s">
         <v>1165</v>
       </c>
@@ -13793,7 +14464,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="2" t="s">
         <v>1168</v>
       </c>
@@ -13816,7 +14487,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="2" t="s">
         <v>1171</v>
       </c>
@@ -13839,7 +14510,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="2" t="s">
         <v>1174</v>
       </c>
@@ -13862,7 +14533,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="2" t="s">
         <v>1177</v>
       </c>
@@ -13885,7 +14556,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="2" t="s">
         <v>1180</v>
       </c>
@@ -13908,7 +14579,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="2" t="s">
         <v>1183</v>
       </c>
@@ -13931,7 +14602,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="2" t="s">
         <v>1186</v>
       </c>
@@ -13954,7 +14625,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="2" t="s">
         <v>1189</v>
       </c>
@@ -13977,7 +14648,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="2" t="s">
         <v>1192</v>
       </c>
@@ -14000,7 +14671,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="2" t="s">
         <v>1195</v>
       </c>
@@ -14023,7 +14694,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="2" t="s">
         <v>1198</v>
       </c>
@@ -14046,7 +14717,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="2" t="s">
         <v>1201</v>
       </c>
@@ -14069,7 +14740,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="2" t="s">
         <v>1204</v>
       </c>
@@ -14092,7 +14763,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="2" t="s">
         <v>1207</v>
       </c>
@@ -14115,7 +14786,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="2" t="s">
         <v>1210</v>
       </c>
@@ -14138,7 +14809,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="2" t="s">
         <v>1213</v>
       </c>
@@ -14161,7 +14832,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="2" t="s">
         <v>1216</v>
       </c>
@@ -14184,7 +14855,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="2" t="s">
         <v>1219</v>
       </c>
@@ -14207,7 +14878,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="2" t="s">
         <v>1222</v>
       </c>
@@ -14230,7 +14901,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="2" t="s">
         <v>1225</v>
       </c>
@@ -14253,7 +14924,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="2" t="s">
         <v>1228</v>
       </c>
@@ -14276,7 +14947,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="2" t="s">
         <v>1231</v>
       </c>
@@ -14299,7 +14970,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="2" t="s">
         <v>1234</v>
       </c>
@@ -14322,7 +14993,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="2" t="s">
         <v>1237</v>
       </c>
@@ -14345,7 +15016,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="2" t="s">
         <v>1240</v>
       </c>
@@ -14368,7 +15039,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="2" t="s">
         <v>1243</v>
       </c>
@@ -14391,7 +15062,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="2" t="s">
         <v>1246</v>
       </c>
@@ -14414,7 +15085,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="2" t="s">
         <v>1249</v>
       </c>
@@ -14437,7 +15108,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="2" t="s">
         <v>1252</v>
       </c>
@@ -14460,7 +15131,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="2" t="s">
         <v>1255</v>
       </c>
@@ -14483,7 +15154,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="2" t="s">
         <v>1258</v>
       </c>
@@ -14506,7 +15177,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="2" t="s">
         <v>1261</v>
       </c>
@@ -14529,7 +15200,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="2" t="s">
         <v>1264</v>
       </c>
@@ -14552,7 +15223,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="2" t="s">
         <v>1267</v>
       </c>
@@ -14575,7 +15246,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="2" t="s">
         <v>1270</v>
       </c>
@@ -14598,7 +15269,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="2" t="s">
         <v>1273</v>
       </c>
@@ -14621,7 +15292,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="2" t="s">
         <v>1276</v>
       </c>
@@ -14644,7 +15315,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="2" t="s">
         <v>1279</v>
       </c>
@@ -14667,7 +15338,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="2" t="s">
         <v>1282</v>
       </c>
@@ -14690,7 +15361,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="2" t="s">
         <v>1285</v>
       </c>
@@ -14713,7 +15384,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="2" t="s">
         <v>1288</v>
       </c>
@@ -14736,7 +15407,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="2" t="s">
         <v>1291</v>
       </c>
@@ -14759,7 +15430,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="2" t="s">
         <v>1294</v>
       </c>
@@ -14782,7 +15453,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="2" t="s">
         <v>1297</v>
       </c>
@@ -14805,7 +15476,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="2" t="s">
         <v>1300</v>
       </c>
@@ -14828,7 +15499,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="2" t="s">
         <v>1303</v>
       </c>
@@ -14851,7 +15522,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="2" t="s">
         <v>1306</v>
       </c>
@@ -14874,7 +15545,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="2" t="s">
         <v>1309</v>
       </c>
@@ -14897,7 +15568,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="2" t="s">
         <v>1312</v>
       </c>
@@ -14920,7 +15591,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="2" t="s">
         <v>1315</v>
       </c>
@@ -14943,7 +15614,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" s="2" t="s">
         <v>1318</v>
       </c>
@@ -14966,7 +15637,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" s="2" t="s">
         <v>1321</v>
       </c>
@@ -14989,7 +15660,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" s="2" t="s">
         <v>1324</v>
       </c>
@@ -15012,7 +15683,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" s="2" t="s">
         <v>1327</v>
       </c>
@@ -15035,7 +15706,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" s="2" t="s">
         <v>1330</v>
       </c>
@@ -15058,7 +15729,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" s="2" t="s">
         <v>1333</v>
       </c>
@@ -15081,7 +15752,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" s="2" t="s">
         <v>1336</v>
       </c>
@@ -15104,7 +15775,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" s="2" t="s">
         <v>1339</v>
       </c>
@@ -15127,7 +15798,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" s="2" t="s">
         <v>1342</v>
       </c>
@@ -15150,7 +15821,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" s="2" t="s">
         <v>1345</v>
       </c>
@@ -15173,7 +15844,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" s="2" t="s">
         <v>1348</v>
       </c>
@@ -15196,7 +15867,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" s="2" t="s">
         <v>1351</v>
       </c>
@@ -15219,7 +15890,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" s="2" t="s">
         <v>1354</v>
       </c>
@@ -15242,7 +15913,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" s="2" t="s">
         <v>1357</v>
       </c>
@@ -15265,7 +15936,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" s="2" t="s">
         <v>1360</v>
       </c>
@@ -15288,7 +15959,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" s="2" t="s">
         <v>1363</v>
       </c>
@@ -15311,7 +15982,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" s="2" t="s">
         <v>1366</v>
       </c>
@@ -15334,7 +16005,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" s="2" t="s">
         <v>1369</v>
       </c>
@@ -15357,7 +16028,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15380,7 +16051,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" s="2" t="s">
         <v>1375</v>
       </c>
@@ -15403,7 +16074,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" s="2" t="s">
         <v>1378</v>
       </c>
@@ -15426,7 +16097,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" s="2" t="s">
         <v>1381</v>
       </c>
@@ -15449,7 +16120,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" s="2" t="s">
         <v>1384</v>
       </c>
@@ -15472,7 +16143,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" s="2" t="s">
         <v>1387</v>
       </c>
@@ -15495,7 +16166,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" s="2" t="s">
         <v>1390</v>
       </c>
@@ -15518,7 +16189,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" s="2" t="s">
         <v>1393</v>
       </c>
@@ -15541,7 +16212,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" s="2" t="s">
         <v>1396</v>
       </c>
@@ -15564,7 +16235,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" s="2" t="s">
         <v>1399</v>
       </c>
@@ -15587,7 +16258,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" s="2" t="s">
         <v>1402</v>
       </c>
@@ -15610,7 +16281,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" s="2" t="s">
         <v>1405</v>
       </c>
@@ -15633,7 +16304,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" s="2" t="s">
         <v>1408</v>
       </c>
@@ -15656,7 +16327,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" s="2" t="s">
         <v>1411</v>
       </c>
@@ -15679,7 +16350,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" s="2" t="s">
         <v>1414</v>
       </c>
@@ -15702,7 +16373,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" s="2" t="s">
         <v>1417</v>
       </c>
@@ -15725,7 +16396,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" s="2" t="s">
         <v>1420</v>
       </c>
@@ -15748,7 +16419,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" s="2" t="s">
         <v>1423</v>
       </c>
@@ -15771,7 +16442,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" s="2" t="s">
         <v>1426</v>
       </c>
@@ -15794,7 +16465,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" s="2" t="s">
         <v>1429</v>
       </c>
@@ -15817,7 +16488,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" s="2" t="s">
         <v>1432</v>
       </c>
@@ -15840,7 +16511,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" s="2" t="s">
         <v>1435</v>
       </c>
@@ -15863,7 +16534,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" s="2" t="s">
         <v>1438</v>
       </c>
@@ -15886,7 +16557,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" s="2" t="s">
         <v>1441</v>
       </c>
@@ -15909,7 +16580,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" s="2" t="s">
         <v>1444</v>
       </c>
@@ -15932,7 +16603,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" s="2" t="s">
         <v>1447</v>
       </c>
@@ -15955,7 +16626,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" s="2" t="s">
         <v>1450</v>
       </c>
@@ -15978,7 +16649,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" s="2" t="s">
         <v>1453</v>
       </c>
@@ -16001,7 +16672,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" s="2" t="s">
         <v>1456</v>
       </c>
@@ -16024,7 +16695,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" s="2" t="s">
         <v>1459</v>
       </c>
@@ -16047,7 +16718,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" s="2" t="s">
         <v>1462</v>
       </c>
@@ -16070,7 +16741,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" s="2" t="s">
         <v>1465</v>
       </c>
@@ -16093,7 +16764,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" s="2" t="s">
         <v>1468</v>
       </c>
@@ -16116,7 +16787,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" s="2" t="s">
         <v>1471</v>
       </c>
@@ -16139,7 +16810,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" s="2" t="s">
         <v>1474</v>
       </c>
@@ -16162,7 +16833,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" s="2" t="s">
         <v>1477</v>
       </c>
@@ -16185,7 +16856,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" s="2" t="s">
         <v>1480</v>
       </c>
@@ -16208,7 +16879,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" s="2" t="s">
         <v>1483</v>
       </c>
@@ -16231,7 +16902,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" s="2" t="s">
         <v>1486</v>
       </c>
@@ -16254,7 +16925,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" s="2" t="s">
         <v>1489</v>
       </c>
@@ -16277,7 +16948,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" s="2" t="s">
         <v>1492</v>
       </c>
@@ -16300,7 +16971,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" s="2" t="s">
         <v>1495</v>
       </c>
@@ -16323,7 +16994,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" s="2" t="s">
         <v>1498</v>
       </c>
@@ -16346,7 +17017,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" s="2" t="s">
         <v>1501</v>
       </c>
@@ -16369,7 +17040,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" s="2" t="s">
         <v>1504</v>
       </c>
@@ -16392,7 +17063,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" s="2" t="s">
         <v>1507</v>
       </c>
@@ -16415,7 +17086,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" s="2" t="s">
         <v>1510</v>
       </c>
@@ -16438,9 +17109,39 @@
         <v>1511</v>
       </c>
     </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="4" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="4" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="4" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>